--- a/data/Now that you are born again.xlsx
+++ b/data/Now that you are born again.xlsx
@@ -1,37 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://people.ey.com/personal/fountain_olurombi_gh_ey_com/Documents/Desktop/Projects/Exams Results/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20F3F8D0-A1E3-4702-A714-9D79D9C9E921}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{28345A40-B6E2-44CD-8A26-ECB5FF049094}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -506,51 +484,54 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0%"/>
+  </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFffffff"/>
       <name val="Roboto"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF434343"/>
       <name val="Roboto"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF434343"/>
       <name val="Roboto"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Roboto"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF356854"/>
       <name val="Roboto"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF9900"/>
+      <color rgb="FFff9900"/>
       <name val="Roboto"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -560,23 +541,33 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFFD966"/>
+      <color rgb="FFffd966"/>
       <name val="Roboto"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFEA9999"/>
+      <color rgb="FFea9999"/>
       <name val="Roboto"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFff0000"/>
       <name val="Roboto"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Roboto"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -589,19 +580,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF356854"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFffffff"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF6F8F9"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFf6f8f9"/>
       </patternFill>
     </fill>
   </fills>
@@ -615,166 +603,166 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF284E3F"/>
+        <color rgb="FF284e3f"/>
       </left>
       <right style="medium">
         <color rgb="FF356854"/>
       </right>
       <top style="medium">
-        <color rgb="FF284E3F"/>
+        <color rgb="FF284e3f"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF284E3F"/>
+        <color rgb="FF284e3f"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FFcccccc"/>
       </left>
       <right style="medium">
         <color rgb="FF356854"/>
       </right>
       <top style="medium">
-        <color rgb="FF284E3F"/>
+        <color rgb="FF284e3f"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF284E3F"/>
+        <color rgb="FF284e3f"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FFcccccc"/>
       </left>
       <right style="medium">
-        <color rgb="FF284E3F"/>
+        <color rgb="FF284e3f"/>
       </right>
       <top style="medium">
-        <color rgb="FF284E3F"/>
+        <color rgb="FF284e3f"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF284E3F"/>
+        <color rgb="FF284e3f"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF284E3F"/>
+        <color rgb="FF284e3f"/>
       </left>
       <right style="medium">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFffffff"/>
       </right>
       <top style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FFcccccc"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFF6F8F9"/>
+        <color rgb="FFf6f8f9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FFcccccc"/>
       </left>
       <right style="medium">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFffffff"/>
       </right>
       <top style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FFcccccc"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFF6F8F9"/>
+        <color rgb="FFf6f8f9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FFcccccc"/>
       </left>
       <right style="medium">
-        <color rgb="FF284E3F"/>
+        <color rgb="FF284e3f"/>
       </right>
       <top style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FFcccccc"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFF6F8F9"/>
+        <color rgb="FFf6f8f9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF284E3F"/>
+        <color rgb="FF284e3f"/>
       </left>
       <right style="medium">
-        <color rgb="FFF6F8F9"/>
+        <color rgb="FFf6f8f9"/>
       </right>
       <top style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FFcccccc"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFF6F8F9"/>
+        <color rgb="FFf6f8f9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FFcccccc"/>
       </left>
       <right style="medium">
-        <color rgb="FFF6F8F9"/>
+        <color rgb="FFf6f8f9"/>
       </right>
       <top style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FFcccccc"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFF6F8F9"/>
+        <color rgb="FFf6f8f9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF284E3F"/>
+        <color rgb="FF284e3f"/>
       </left>
       <right style="medium">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFffffff"/>
       </right>
       <top style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FFcccccc"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF284E3F"/>
+        <color rgb="FF284e3f"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FFcccccc"/>
       </left>
       <right style="medium">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFffffff"/>
       </right>
       <top style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FFcccccc"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF284E3F"/>
+        <color rgb="FF284e3f"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FFcccccc"/>
       </left>
       <right style="medium">
-        <color rgb="FF284E3F"/>
+        <color rgb="FF284e3f"/>
       </right>
       <top style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color rgb="FFcccccc"/>
       </top>
       <bottom style="medium">
-        <color rgb="FF284E3F"/>
+        <color rgb="FF284e3f"/>
       </bottom>
       <diagonal/>
     </border>
@@ -782,120 +770,131 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+  <cellXfs count="39">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="6" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="6" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="7" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="8" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="8" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="7" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="9" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="9" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="10" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="10" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="11" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="11" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="12" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="7" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="11" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="10" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -906,10 +905,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -936,116 +935,82 @@
         <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1057,232 +1022,234 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A0A41D-B250-4D56-A97B-FDAF932FCDFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:F150"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" style="35" width="10.005" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="36" width="40.57642857142857" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="35" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="37" width="8.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="35" width="5.147857142857143" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="38" width="10.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="5">
         <v>100925029</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="7">
         <v>36</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="8">
         <v>55</v>
       </c>
-      <c r="E2" s="7">
+      <c r="E2" s="8">
         <v>91</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="9">
         <v>0.91</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="10">
         <v>100925114</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="15">
+      <c r="C3" s="12">
         <v>31</v>
       </c>
       <c r="D3" s="13">
@@ -1291,38 +1258,38 @@
       <c r="E3" s="13">
         <v>85</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="14">
         <v>0.85</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="5">
         <v>100925133</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="7">
         <v>31</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="8">
         <v>53</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="8">
         <v>84</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>0.84</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="10">
         <v>100925007</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="12">
         <v>33</v>
       </c>
       <c r="D5" s="13">
@@ -1331,38 +1298,38 @@
       <c r="E5" s="13">
         <v>83</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="14">
         <v>0.83</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="5">
         <v>100925100</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="7">
         <v>31</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="8">
         <v>52</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="8">
         <v>83</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>0.83</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="10">
         <v>100925111</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="12">
         <v>31</v>
       </c>
       <c r="D7" s="13">
@@ -1371,38 +1338,38 @@
       <c r="E7" s="13">
         <v>82</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="14">
         <v>0.82</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="5">
         <v>100925098</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="7">
         <v>30</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="8">
         <v>52</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="8">
         <v>82</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <v>0.82</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
+      <c r="A9" s="10">
         <v>100925030</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="12">
         <v>31</v>
       </c>
       <c r="D9" s="13">
@@ -1411,38 +1378,38 @@
       <c r="E9" s="13">
         <v>82</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="14">
         <v>0.82</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="5">
         <v>100925123</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="7">
         <v>30</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="8">
         <v>51</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="8">
         <v>81</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <v>0.81</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="10">
         <v>100925060</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="12">
         <v>28</v>
       </c>
       <c r="D11" s="13">
@@ -1451,38 +1418,38 @@
       <c r="E11" s="13">
         <v>81</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="14">
         <v>0.81</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="5">
         <v>100925024</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="7">
         <v>27</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="8">
         <v>53</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="8">
         <v>80</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="9">
         <v>0.8</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="10">
         <v>100925034</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="12">
         <v>34</v>
       </c>
       <c r="D13" s="13">
@@ -1491,38 +1458,38 @@
       <c r="E13" s="13">
         <v>79</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="15">
         <v>0.79</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="5">
         <v>100925084</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="7">
         <v>33</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="8">
         <v>45</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E14" s="8">
         <v>78</v>
       </c>
-      <c r="F14" s="18">
+      <c r="F14" s="16">
         <v>0.78</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="10">
         <v>100925143</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="12">
         <v>31</v>
       </c>
       <c r="D15" s="13">
@@ -1531,38 +1498,38 @@
       <c r="E15" s="13">
         <v>78</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="15">
         <v>0.78</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="5">
         <v>100925002</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="7">
         <v>29</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="8">
         <v>49</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E16" s="8">
         <v>78</v>
       </c>
-      <c r="F16" s="18">
+      <c r="F16" s="16">
         <v>0.78</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="11">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="10">
         <v>100925135</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="15">
+      <c r="C17" s="12">
         <v>27</v>
       </c>
       <c r="D17" s="13">
@@ -1571,38 +1538,38 @@
       <c r="E17" s="13">
         <v>78</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="15">
         <v>0.78</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="5">
         <v>100925083</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="7">
         <v>28</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="8">
         <v>50</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E18" s="8">
         <v>78</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="16">
         <v>0.78</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="11">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="10">
         <v>100925025</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="15">
+      <c r="C19" s="12">
         <v>34</v>
       </c>
       <c r="D19" s="13">
@@ -1611,38 +1578,38 @@
       <c r="E19" s="13">
         <v>77</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="15">
         <v>0.77</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="5">
         <v>100925097</v>
       </c>
       <c r="B20" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="9">
+      <c r="C20" s="7">
         <v>29</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="8">
         <v>48</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E20" s="8">
         <v>77</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="16">
         <v>0.77</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="11">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="10">
         <v>100925103</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C21" s="12">
         <v>25</v>
       </c>
       <c r="D21" s="13">
@@ -1651,38 +1618,38 @@
       <c r="E21" s="13">
         <v>77</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="15">
         <v>0.77</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="5">
         <v>100925073</v>
       </c>
       <c r="B22" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="7">
         <v>33</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="8">
         <v>43</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="8">
         <v>76</v>
       </c>
-      <c r="F22" s="18">
+      <c r="F22" s="16">
         <v>0.76</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="10">
         <v>100925004</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C23" s="12">
         <v>28</v>
       </c>
       <c r="D23" s="13">
@@ -1691,38 +1658,38 @@
       <c r="E23" s="13">
         <v>76</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="15">
         <v>0.76</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="5">
         <v>100925076</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="7">
         <v>25</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="8">
         <v>51</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E24" s="8">
         <v>76</v>
       </c>
-      <c r="F24" s="18">
+      <c r="F24" s="16">
         <v>0.76</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="11">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+      <c r="A25" s="10">
         <v>100925010</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="15">
+      <c r="C25" s="12">
         <v>35</v>
       </c>
       <c r="D25" s="13">
@@ -1731,38 +1698,38 @@
       <c r="E25" s="13">
         <v>75</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="15">
         <v>0.75</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="5">
         <v>100925119</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="7">
         <v>31</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="8">
         <v>43</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E26" s="8">
         <v>74</v>
       </c>
-      <c r="F26" s="18">
+      <c r="F26" s="16">
         <v>0.74</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="11">
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+      <c r="A27" s="10">
         <v>100925068</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="15">
+      <c r="C27" s="12">
         <v>30</v>
       </c>
       <c r="D27" s="13">
@@ -1771,38 +1738,38 @@
       <c r="E27" s="13">
         <v>74</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="15">
         <v>0.74</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="5">
         <v>100925065</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="7">
         <v>29</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D28" s="8">
         <v>45</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E28" s="8">
         <v>74</v>
       </c>
-      <c r="F28" s="18">
+      <c r="F28" s="16">
         <v>0.74</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="11">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+      <c r="A29" s="10">
         <v>100925032</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="15">
+      <c r="C29" s="12">
         <v>27</v>
       </c>
       <c r="D29" s="13">
@@ -1811,38 +1778,38 @@
       <c r="E29" s="13">
         <v>74</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="15">
         <v>0.74</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="5">
         <v>100925093</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="7">
         <v>26</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D30" s="8">
         <v>48</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E30" s="8">
         <v>74</v>
       </c>
-      <c r="F30" s="18">
+      <c r="F30" s="16">
         <v>0.74</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="11">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
+      <c r="A31" s="10">
         <v>100925085</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="15">
+      <c r="C31" s="12">
         <v>25</v>
       </c>
       <c r="D31" s="13">
@@ -1851,38 +1818,38 @@
       <c r="E31" s="13">
         <v>74</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F31" s="15">
         <v>0.74</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="5">
         <v>100925128</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="7">
         <v>30</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D32" s="8">
         <v>43</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E32" s="8">
         <v>73</v>
       </c>
-      <c r="F32" s="18">
+      <c r="F32" s="16">
         <v>0.73</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="11">
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+      <c r="A33" s="10">
         <v>100925121</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="15">
+      <c r="C33" s="12">
         <v>29</v>
       </c>
       <c r="D33" s="13">
@@ -1891,38 +1858,38 @@
       <c r="E33" s="13">
         <v>73</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F33" s="15">
         <v>0.73</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="19.5">
       <c r="A34" s="5">
         <v>100925107</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="7">
         <v>28</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="8">
         <v>45</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="8">
         <v>73</v>
       </c>
-      <c r="F34" s="18">
+      <c r="F34" s="16">
         <v>0.73</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="11">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="10">
         <v>100925046</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="15">
+      <c r="C35" s="12">
         <v>27</v>
       </c>
       <c r="D35" s="13">
@@ -1931,38 +1898,38 @@
       <c r="E35" s="13">
         <v>73</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F35" s="15">
         <v>0.73</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="5">
         <v>100925101</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="7">
         <v>25</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D36" s="8">
         <v>48</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="8">
         <v>73</v>
       </c>
-      <c r="F36" s="18">
+      <c r="F36" s="16">
         <v>0.73</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="11">
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="10">
         <v>100925132</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C37" s="15">
+      <c r="C37" s="12">
         <v>30</v>
       </c>
       <c r="D37" s="13">
@@ -1971,38 +1938,38 @@
       <c r="E37" s="13">
         <v>72</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F37" s="15">
         <v>0.72</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="5">
         <v>100925125</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="7">
         <v>33</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D38" s="8">
         <v>38</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="8">
         <v>71</v>
       </c>
-      <c r="F38" s="18">
+      <c r="F38" s="16">
         <v>0.71</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="11">
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="10">
         <v>100925064</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C39" s="15">
+      <c r="C39" s="12">
         <v>30</v>
       </c>
       <c r="D39" s="13">
@@ -2011,38 +1978,38 @@
       <c r="E39" s="13">
         <v>70</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F39" s="15">
         <v>0.7</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="5">
         <v>100925062</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="7">
         <v>28</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="8">
         <v>42</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="8">
         <v>70</v>
       </c>
-      <c r="F40" s="18">
+      <c r="F40" s="16">
         <v>0.7</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="11">
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="10">
         <v>100925053</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="15">
+      <c r="C41" s="12">
         <v>27</v>
       </c>
       <c r="D41" s="13">
@@ -2051,38 +2018,38 @@
       <c r="E41" s="13">
         <v>70</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F41" s="15">
         <v>0.7</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="5">
         <v>100925091</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="9">
+      <c r="C42" s="7">
         <v>25</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D42" s="8">
         <v>45</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="8">
         <v>70</v>
       </c>
-      <c r="F42" s="18">
+      <c r="F42" s="16">
         <v>0.7</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="11">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="10">
         <v>100925150</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C43" s="15">
+      <c r="C43" s="12">
         <v>26</v>
       </c>
       <c r="D43" s="13">
@@ -2091,38 +2058,38 @@
       <c r="E43" s="13">
         <v>69</v>
       </c>
-      <c r="F43" s="20">
+      <c r="F43" s="18">
         <v>0.69</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="5">
         <v>100925069</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="9">
+      <c r="C44" s="7">
         <v>31</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D44" s="8">
         <v>37</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E44" s="8">
         <v>68</v>
       </c>
-      <c r="F44" s="21">
+      <c r="F44" s="19">
         <v>0.68</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="11">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+      <c r="A45" s="10">
         <v>100925104</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="15">
+      <c r="C45" s="12">
         <v>22</v>
       </c>
       <c r="D45" s="13">
@@ -2131,38 +2098,38 @@
       <c r="E45" s="13">
         <v>68</v>
       </c>
-      <c r="F45" s="20">
+      <c r="F45" s="18">
         <v>0.68</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="5">
         <v>100925051</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="C46" s="9">
+      <c r="C46" s="7">
         <v>28</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="8">
         <v>40</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="8">
         <v>68</v>
       </c>
-      <c r="F46" s="21">
+      <c r="F46" s="19">
         <v>0.68</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="11">
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+      <c r="A47" s="10">
         <v>100925016</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="15">
+      <c r="C47" s="12">
         <v>30</v>
       </c>
       <c r="D47" s="13">
@@ -2171,38 +2138,38 @@
       <c r="E47" s="13">
         <v>67</v>
       </c>
-      <c r="F47" s="20">
+      <c r="F47" s="18">
         <v>0.67</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="5">
         <v>100925079</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="9">
+      <c r="C48" s="7">
         <v>27</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D48" s="8">
         <v>40</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E48" s="8">
         <v>67</v>
       </c>
-      <c r="F48" s="21">
+      <c r="F48" s="19">
         <v>0.67</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="11">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+      <c r="A49" s="10">
         <v>100925115</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="15">
+      <c r="C49" s="12">
         <v>25</v>
       </c>
       <c r="D49" s="13">
@@ -2211,38 +2178,38 @@
       <c r="E49" s="13">
         <v>66</v>
       </c>
-      <c r="F49" s="20">
+      <c r="F49" s="18">
         <v>0.66</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="5">
         <v>100925049</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="9">
+      <c r="C50" s="7">
         <v>22</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="8">
         <v>44</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E50" s="8">
         <v>66</v>
       </c>
-      <c r="F50" s="21">
+      <c r="F50" s="19">
         <v>0.66</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="11">
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+      <c r="A51" s="10">
         <v>100925090</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C51" s="15">
+      <c r="C51" s="12">
         <v>22</v>
       </c>
       <c r="D51" s="13">
@@ -2251,38 +2218,38 @@
       <c r="E51" s="13">
         <v>66</v>
       </c>
-      <c r="F51" s="20">
+      <c r="F51" s="18">
         <v>0.66</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="5">
         <v>100925151</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C52" s="9">
+      <c r="C52" s="7">
         <v>24</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D52" s="8">
         <v>41</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E52" s="8">
         <v>65</v>
       </c>
-      <c r="F52" s="21">
+      <c r="F52" s="19">
         <v>0.65</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="11">
+    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+      <c r="A53" s="10">
         <v>100925131</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C53" s="15">
+      <c r="C53" s="12">
         <v>25</v>
       </c>
       <c r="D53" s="13">
@@ -2291,38 +2258,38 @@
       <c r="E53" s="13">
         <v>65</v>
       </c>
-      <c r="F53" s="20">
+      <c r="F53" s="18">
         <v>0.65</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="5">
         <v>100925028</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="7">
         <v>27</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D54" s="8">
         <v>37</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E54" s="8">
         <v>64</v>
       </c>
-      <c r="F54" s="21">
+      <c r="F54" s="19">
         <v>0.64</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="11">
+    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+      <c r="A55" s="10">
         <v>100925048</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C55" s="15">
+      <c r="C55" s="12">
         <v>25</v>
       </c>
       <c r="D55" s="13">
@@ -2331,38 +2298,38 @@
       <c r="E55" s="13">
         <v>64</v>
       </c>
-      <c r="F55" s="20">
+      <c r="F55" s="18">
         <v>0.64</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="5">
         <v>100925052</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C56" s="9">
+      <c r="C56" s="7">
         <v>24</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D56" s="8">
         <v>40</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E56" s="8">
         <v>64</v>
       </c>
-      <c r="F56" s="21">
+      <c r="F56" s="19">
         <v>0.64</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="11">
+    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+      <c r="A57" s="10">
         <v>100925147</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C57" s="15">
+      <c r="C57" s="12">
         <v>24</v>
       </c>
       <c r="D57" s="13">
@@ -2371,38 +2338,38 @@
       <c r="E57" s="13">
         <v>64</v>
       </c>
-      <c r="F57" s="20">
+      <c r="F57" s="18">
         <v>0.64</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="5">
         <v>100925080</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C58" s="9">
+      <c r="C58" s="7">
         <v>29</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58" s="8">
         <v>34</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58" s="8">
         <v>63</v>
       </c>
-      <c r="F58" s="21">
+      <c r="F58" s="19">
         <v>0.63</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="11">
+    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+      <c r="A59" s="10">
         <v>100925116</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C59" s="15">
+      <c r="C59" s="12">
         <v>28</v>
       </c>
       <c r="D59" s="13">
@@ -2411,38 +2378,38 @@
       <c r="E59" s="13">
         <v>63</v>
       </c>
-      <c r="F59" s="20">
+      <c r="F59" s="18">
         <v>0.63</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="5">
         <v>100925008</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="C60" s="9">
+      <c r="C60" s="7">
         <v>23</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D60" s="8">
         <v>40</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E60" s="8">
         <v>63</v>
       </c>
-      <c r="F60" s="21">
+      <c r="F60" s="19">
         <v>0.63</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="11">
+    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+      <c r="A61" s="10">
         <v>100925153</v>
       </c>
-      <c r="B61" s="19" t="s">
+      <c r="B61" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C61" s="15">
+      <c r="C61" s="12">
         <v>22</v>
       </c>
       <c r="D61" s="13">
@@ -2451,38 +2418,38 @@
       <c r="E61" s="13">
         <v>63</v>
       </c>
-      <c r="F61" s="20">
+      <c r="F61" s="18">
         <v>0.63</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="5">
         <v>100925038</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C62" s="9">
+      <c r="C62" s="7">
         <v>21</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D62" s="8">
         <v>42</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E62" s="8">
         <v>63</v>
       </c>
-      <c r="F62" s="21">
+      <c r="F62" s="19">
         <v>0.63</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="11">
+    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+      <c r="A63" s="10">
         <v>100925138</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B63" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C63" s="15">
+      <c r="C63" s="12">
         <v>26</v>
       </c>
       <c r="D63" s="13">
@@ -2491,38 +2458,38 @@
       <c r="E63" s="13">
         <v>63</v>
       </c>
-      <c r="F63" s="20">
+      <c r="F63" s="18">
         <v>0.63</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="5">
         <v>100925095</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C64" s="9">
+      <c r="C64" s="7">
         <v>20</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D64" s="8">
         <v>43</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E64" s="8">
         <v>63</v>
       </c>
-      <c r="F64" s="21">
+      <c r="F64" s="19">
         <v>0.63</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="11">
+    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+      <c r="A65" s="10">
         <v>100925021</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B65" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C65" s="15">
+      <c r="C65" s="12">
         <v>26</v>
       </c>
       <c r="D65" s="13">
@@ -2531,38 +2498,38 @@
       <c r="E65" s="13">
         <v>62</v>
       </c>
-      <c r="F65" s="20">
+      <c r="F65" s="18">
         <v>0.62</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="5">
         <v>100925056</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C66" s="9">
+      <c r="C66" s="7">
         <v>24</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D66" s="8">
         <v>38</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E66" s="8">
         <v>62</v>
       </c>
-      <c r="F66" s="21">
+      <c r="F66" s="19">
         <v>0.62</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="11">
+    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+      <c r="A67" s="10">
         <v>100925134</v>
       </c>
-      <c r="B67" s="12" t="s">
+      <c r="B67" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C67" s="15">
+      <c r="C67" s="12">
         <v>23</v>
       </c>
       <c r="D67" s="13">
@@ -2571,38 +2538,38 @@
       <c r="E67" s="13">
         <v>62</v>
       </c>
-      <c r="F67" s="20">
+      <c r="F67" s="18">
         <v>0.62</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="5">
         <v>100925001</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C68" s="9">
+      <c r="C68" s="7">
         <v>26</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D68" s="8">
         <v>36</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E68" s="8">
         <v>62</v>
       </c>
-      <c r="F68" s="21">
+      <c r="F68" s="19">
         <v>0.62</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="11">
+    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+      <c r="A69" s="10">
         <v>100925006</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B69" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C69" s="15">
+      <c r="C69" s="12">
         <v>30</v>
       </c>
       <c r="D69" s="13">
@@ -2611,38 +2578,38 @@
       <c r="E69" s="13">
         <v>61</v>
       </c>
-      <c r="F69" s="20">
+      <c r="F69" s="18">
         <v>0.61</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="5">
         <v>100925120</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="C70" s="9">
+      <c r="C70" s="7">
         <v>25</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D70" s="8">
         <v>36</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E70" s="8">
         <v>61</v>
       </c>
-      <c r="F70" s="21">
+      <c r="F70" s="19">
         <v>0.61</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="11">
+    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+      <c r="A71" s="10">
         <v>100925075</v>
       </c>
-      <c r="B71" s="12" t="s">
+      <c r="B71" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C71" s="15">
+      <c r="C71" s="12">
         <v>27</v>
       </c>
       <c r="D71" s="13">
@@ -2651,38 +2618,38 @@
       <c r="E71" s="13">
         <v>61</v>
       </c>
-      <c r="F71" s="20">
+      <c r="F71" s="18">
         <v>0.61</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="5">
         <v>100925022</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C72" s="9">
+      <c r="C72" s="7">
         <v>30</v>
       </c>
-      <c r="D72" s="7">
+      <c r="D72" s="8">
         <v>30</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E72" s="8">
         <v>60</v>
       </c>
-      <c r="F72" s="21">
+      <c r="F72" s="19">
         <v>0.6</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="11">
+    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+      <c r="A73" s="10">
         <v>100925099</v>
       </c>
-      <c r="B73" s="12" t="s">
+      <c r="B73" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C73" s="15">
+      <c r="C73" s="12">
         <v>24</v>
       </c>
       <c r="D73" s="13">
@@ -2691,38 +2658,38 @@
       <c r="E73" s="13">
         <v>60</v>
       </c>
-      <c r="F73" s="20">
+      <c r="F73" s="18">
         <v>0.6</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="5">
         <v>100925078</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="C74" s="9">
+      <c r="C74" s="7">
         <v>27</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D74" s="8">
         <v>32</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E74" s="8">
         <v>59</v>
       </c>
-      <c r="F74" s="23">
+      <c r="F74" s="21">
         <v>0.59</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="11">
+    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+      <c r="A75" s="10">
         <v>100925139</v>
       </c>
-      <c r="B75" s="12" t="s">
+      <c r="B75" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C75" s="15">
+      <c r="C75" s="12">
         <v>25</v>
       </c>
       <c r="D75" s="13">
@@ -2731,38 +2698,38 @@
       <c r="E75" s="13">
         <v>59</v>
       </c>
-      <c r="F75" s="24">
+      <c r="F75" s="22">
         <v>0.59</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="5">
         <v>100925070</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C76" s="9">
+      <c r="C76" s="7">
         <v>25</v>
       </c>
-      <c r="D76" s="7">
+      <c r="D76" s="8">
         <v>34</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E76" s="8">
         <v>59</v>
       </c>
-      <c r="F76" s="23">
+      <c r="F76" s="21">
         <v>0.59</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="11">
+    <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
+      <c r="A77" s="10">
         <v>100925102</v>
       </c>
-      <c r="B77" s="12" t="s">
+      <c r="B77" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C77" s="15">
+      <c r="C77" s="12">
         <v>20</v>
       </c>
       <c r="D77" s="13">
@@ -2771,38 +2738,38 @@
       <c r="E77" s="13">
         <v>58</v>
       </c>
-      <c r="F77" s="24">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F77" s="22">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="5">
         <v>100925118</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C78" s="9">
+      <c r="C78" s="7">
         <v>28</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D78" s="8">
         <v>30</v>
       </c>
-      <c r="E78" s="7">
+      <c r="E78" s="8">
         <v>58</v>
       </c>
-      <c r="F78" s="23">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="11">
+      <c r="F78" s="21">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
+      <c r="A79" s="10">
         <v>100925117</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="B79" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C79" s="15">
+      <c r="C79" s="12">
         <v>19</v>
       </c>
       <c r="D79" s="13">
@@ -2811,38 +2778,38 @@
       <c r="E79" s="13">
         <v>58</v>
       </c>
-      <c r="F79" s="24">
-        <v>0.57999999999999996</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F79" s="22">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="5">
         <v>100925146</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C80" s="9">
+      <c r="C80" s="7">
         <v>28</v>
       </c>
-      <c r="D80" s="7">
+      <c r="D80" s="8">
         <v>29</v>
       </c>
-      <c r="E80" s="7">
+      <c r="E80" s="8">
         <v>57</v>
       </c>
-      <c r="F80" s="23">
-        <v>0.56999999999999995</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="11">
+      <c r="F80" s="21">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
+      <c r="A81" s="10">
         <v>100925137</v>
       </c>
-      <c r="B81" s="12" t="s">
+      <c r="B81" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C81" s="15">
+      <c r="C81" s="12">
         <v>28</v>
       </c>
       <c r="D81" s="13">
@@ -2851,38 +2818,38 @@
       <c r="E81" s="13">
         <v>56</v>
       </c>
-      <c r="F81" s="24">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F81" s="22">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="5">
         <v>100925036</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C82" s="9">
+      <c r="C82" s="7">
         <v>23</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D82" s="8">
         <v>33</v>
       </c>
-      <c r="E82" s="7">
+      <c r="E82" s="8">
         <v>56</v>
       </c>
-      <c r="F82" s="23">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="11">
+      <c r="F82" s="21">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
+      <c r="A83" s="10">
         <v>100925041</v>
       </c>
-      <c r="B83" s="12" t="s">
+      <c r="B83" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C83" s="15">
+      <c r="C83" s="12">
         <v>18</v>
       </c>
       <c r="D83" s="13">
@@ -2891,38 +2858,38 @@
       <c r="E83" s="13">
         <v>56</v>
       </c>
-      <c r="F83" s="24">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F83" s="22">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="5">
         <v>100925142</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C84" s="9">
+      <c r="C84" s="7">
         <v>28</v>
       </c>
-      <c r="D84" s="7">
+      <c r="D84" s="8">
         <v>27</v>
       </c>
-      <c r="E84" s="7">
+      <c r="E84" s="8">
         <v>55</v>
       </c>
-      <c r="F84" s="23">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="11">
+      <c r="F84" s="21">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
+      <c r="A85" s="10">
         <v>100925067</v>
       </c>
-      <c r="B85" s="12" t="s">
+      <c r="B85" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C85" s="15">
+      <c r="C85" s="12">
         <v>26</v>
       </c>
       <c r="D85" s="13">
@@ -2931,38 +2898,38 @@
       <c r="E85" s="13">
         <v>54</v>
       </c>
-      <c r="F85" s="24">
+      <c r="F85" s="22">
         <v>0.54</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="5">
         <v>100925110</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="C86" s="9">
+      <c r="C86" s="7">
         <v>20</v>
       </c>
-      <c r="D86" s="7">
+      <c r="D86" s="8">
         <v>34</v>
       </c>
-      <c r="E86" s="7">
+      <c r="E86" s="8">
         <v>54</v>
       </c>
-      <c r="F86" s="23">
+      <c r="F86" s="21">
         <v>0.54</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="11">
+    <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
+      <c r="A87" s="10">
         <v>100925106</v>
       </c>
-      <c r="B87" s="12" t="s">
+      <c r="B87" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C87" s="15">
+      <c r="C87" s="12">
         <v>15</v>
       </c>
       <c r="D87" s="13">
@@ -2971,38 +2938,38 @@
       <c r="E87" s="13">
         <v>54</v>
       </c>
-      <c r="F87" s="24">
+      <c r="F87" s="22">
         <v>0.54</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="5">
         <v>100925144</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C88" s="9">
+      <c r="C88" s="7">
         <v>23</v>
       </c>
-      <c r="D88" s="7">
+      <c r="D88" s="8">
         <v>30</v>
       </c>
-      <c r="E88" s="7">
+      <c r="E88" s="8">
         <v>53</v>
       </c>
-      <c r="F88" s="23">
+      <c r="F88" s="21">
         <v>0.53</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="11">
+    <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
+      <c r="A89" s="10">
         <v>100925009</v>
       </c>
-      <c r="B89" s="12" t="s">
+      <c r="B89" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C89" s="15">
+      <c r="C89" s="12">
         <v>23</v>
       </c>
       <c r="D89" s="13">
@@ -3011,38 +2978,38 @@
       <c r="E89" s="13">
         <v>53</v>
       </c>
-      <c r="F89" s="24">
+      <c r="F89" s="22">
         <v>0.53</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="5">
         <v>100925037</v>
       </c>
       <c r="B90" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C90" s="9">
+      <c r="C90" s="7">
         <v>22</v>
       </c>
-      <c r="D90" s="7">
+      <c r="D90" s="8">
         <v>31</v>
       </c>
-      <c r="E90" s="7">
+      <c r="E90" s="8">
         <v>53</v>
       </c>
-      <c r="F90" s="23">
+      <c r="F90" s="21">
         <v>0.53</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="11">
+    <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
+      <c r="A91" s="10">
         <v>100925071</v>
       </c>
-      <c r="B91" s="12" t="s">
+      <c r="B91" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C91" s="15">
+      <c r="C91" s="12">
         <v>27</v>
       </c>
       <c r="D91" s="13">
@@ -3051,38 +3018,38 @@
       <c r="E91" s="13">
         <v>52</v>
       </c>
-      <c r="F91" s="24">
+      <c r="F91" s="22">
         <v>0.52</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="5">
         <v>100925087</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C92" s="9">
+      <c r="C92" s="7">
         <v>27</v>
       </c>
-      <c r="D92" s="7">
+      <c r="D92" s="8">
         <v>25</v>
       </c>
-      <c r="E92" s="7">
+      <c r="E92" s="8">
         <v>52</v>
       </c>
-      <c r="F92" s="23">
+      <c r="F92" s="21">
         <v>0.52</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="11">
+    <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
+      <c r="A93" s="10">
         <v>100925003</v>
       </c>
-      <c r="B93" s="12" t="s">
+      <c r="B93" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C93" s="15">
+      <c r="C93" s="12">
         <v>22</v>
       </c>
       <c r="D93" s="13">
@@ -3091,38 +3058,38 @@
       <c r="E93" s="13">
         <v>52</v>
       </c>
-      <c r="F93" s="24">
+      <c r="F93" s="22">
         <v>0.52</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="5">
         <v>100925072</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C94" s="9">
+      <c r="C94" s="7">
         <v>25</v>
       </c>
-      <c r="D94" s="7">
+      <c r="D94" s="8">
         <v>25</v>
       </c>
-      <c r="E94" s="7">
+      <c r="E94" s="8">
         <v>50</v>
       </c>
-      <c r="F94" s="23">
+      <c r="F94" s="21">
         <v>0.5</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="11">
+    <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
+      <c r="A95" s="10">
         <v>100925122</v>
       </c>
-      <c r="B95" s="12" t="s">
+      <c r="B95" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C95" s="15">
+      <c r="C95" s="12">
         <v>20</v>
       </c>
       <c r="D95" s="13">
@@ -3131,38 +3098,38 @@
       <c r="E95" s="13">
         <v>50</v>
       </c>
-      <c r="F95" s="24">
+      <c r="F95" s="22">
         <v>0.5</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="5">
         <v>100925047</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="C96" s="9">
+      <c r="C96" s="7">
         <v>21</v>
       </c>
-      <c r="D96" s="7">
+      <c r="D96" s="8">
         <v>28</v>
       </c>
-      <c r="E96" s="7">
+      <c r="E96" s="8">
         <v>49</v>
       </c>
-      <c r="F96" s="25">
+      <c r="F96" s="23">
         <v>0.49</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="11">
+    <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
+      <c r="A97" s="10">
         <v>100925105</v>
       </c>
-      <c r="B97" s="12" t="s">
+      <c r="B97" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C97" s="15">
+      <c r="C97" s="12">
         <v>19</v>
       </c>
       <c r="D97" s="13">
@@ -3171,38 +3138,38 @@
       <c r="E97" s="13">
         <v>49</v>
       </c>
-      <c r="F97" s="26">
+      <c r="F97" s="24">
         <v>0.49</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="5">
         <v>100925019</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="C98" s="9">
+      <c r="C98" s="7">
         <v>28</v>
       </c>
-      <c r="D98" s="7">
+      <c r="D98" s="8">
         <v>20</v>
       </c>
-      <c r="E98" s="7">
+      <c r="E98" s="8">
         <v>48</v>
       </c>
-      <c r="F98" s="25">
+      <c r="F98" s="23">
         <v>0.48</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="11">
+    <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
+      <c r="A99" s="10">
         <v>100925061</v>
       </c>
-      <c r="B99" s="12" t="s">
+      <c r="B99" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C99" s="15">
+      <c r="C99" s="12">
         <v>17</v>
       </c>
       <c r="D99" s="13">
@@ -3211,38 +3178,38 @@
       <c r="E99" s="13">
         <v>48</v>
       </c>
-      <c r="F99" s="26">
+      <c r="F99" s="24">
         <v>0.48</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="5">
         <v>100925082</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="C100" s="9">
+      <c r="C100" s="7">
         <v>23</v>
       </c>
-      <c r="D100" s="7">
+      <c r="D100" s="8">
         <v>24</v>
       </c>
-      <c r="E100" s="7">
+      <c r="E100" s="8">
         <v>47</v>
       </c>
-      <c r="F100" s="25">
+      <c r="F100" s="23">
         <v>0.47</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="11">
+    <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
+      <c r="A101" s="10">
         <v>100925035</v>
       </c>
-      <c r="B101" s="12" t="s">
+      <c r="B101" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C101" s="15">
+      <c r="C101" s="12">
         <v>22</v>
       </c>
       <c r="D101" s="13">
@@ -3251,38 +3218,38 @@
       <c r="E101" s="13">
         <v>47</v>
       </c>
-      <c r="F101" s="26">
+      <c r="F101" s="24">
         <v>0.47</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="5">
         <v>100925012</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C102" s="9">
+      <c r="C102" s="7">
         <v>23</v>
       </c>
-      <c r="D102" s="7">
+      <c r="D102" s="8">
         <v>24</v>
       </c>
-      <c r="E102" s="7">
+      <c r="E102" s="8">
         <v>47</v>
       </c>
-      <c r="F102" s="25">
+      <c r="F102" s="23">
         <v>0.47</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="11">
+    <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
+      <c r="A103" s="10">
         <v>100925113</v>
       </c>
-      <c r="B103" s="12" t="s">
+      <c r="B103" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C103" s="15">
+      <c r="C103" s="12">
         <v>22</v>
       </c>
       <c r="D103" s="13">
@@ -3291,38 +3258,38 @@
       <c r="E103" s="13">
         <v>47</v>
       </c>
-      <c r="F103" s="26">
+      <c r="F103" s="24">
         <v>0.47</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="5">
         <v>100925074</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="C104" s="9">
+      <c r="C104" s="7">
         <v>23</v>
       </c>
-      <c r="D104" s="7">
+      <c r="D104" s="8">
         <v>23</v>
       </c>
-      <c r="E104" s="7">
+      <c r="E104" s="8">
         <v>46</v>
       </c>
-      <c r="F104" s="25">
+      <c r="F104" s="23">
         <v>0.46</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="11">
+    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
+      <c r="A105" s="10">
         <v>100925020</v>
       </c>
-      <c r="B105" s="12" t="s">
+      <c r="B105" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C105" s="15">
+      <c r="C105" s="12">
         <v>24</v>
       </c>
       <c r="D105" s="13">
@@ -3331,38 +3298,38 @@
       <c r="E105" s="13">
         <v>45</v>
       </c>
-      <c r="F105" s="26">
+      <c r="F105" s="24">
         <v>0.45</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="18.75">
       <c r="A106" s="5">
         <v>100925109</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="C106" s="9">
+      <c r="C106" s="7">
         <v>18</v>
       </c>
-      <c r="D106" s="7">
+      <c r="D106" s="8">
         <v>27</v>
       </c>
-      <c r="E106" s="7">
+      <c r="E106" s="8">
         <v>45</v>
       </c>
-      <c r="F106" s="25">
+      <c r="F106" s="23">
         <v>0.45</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="11">
+    <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="18.75">
+      <c r="A107" s="10">
         <v>100925018</v>
       </c>
-      <c r="B107" s="12" t="s">
+      <c r="B107" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C107" s="15">
+      <c r="C107" s="12">
         <v>20</v>
       </c>
       <c r="D107" s="13">
@@ -3371,38 +3338,38 @@
       <c r="E107" s="13">
         <v>45</v>
       </c>
-      <c r="F107" s="26">
+      <c r="F107" s="24">
         <v>0.45</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="18.75">
       <c r="A108" s="5">
         <v>100925011</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="C108" s="9">
+      <c r="C108" s="7">
         <v>20</v>
       </c>
-      <c r="D108" s="7">
+      <c r="D108" s="8">
         <v>23</v>
       </c>
-      <c r="E108" s="7">
+      <c r="E108" s="8">
         <v>43</v>
       </c>
-      <c r="F108" s="25">
+      <c r="F108" s="23">
         <v>0.43</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="11">
+    <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="18.75">
+      <c r="A109" s="10">
         <v>100925054</v>
       </c>
-      <c r="B109" s="12" t="s">
+      <c r="B109" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C109" s="15">
+      <c r="C109" s="12">
         <v>23</v>
       </c>
       <c r="D109" s="13">
@@ -3411,38 +3378,38 @@
       <c r="E109" s="13">
         <v>42</v>
       </c>
-      <c r="F109" s="26">
+      <c r="F109" s="24">
         <v>0.42</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="18.75">
       <c r="A110" s="5">
         <v>100925129</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="C110" s="9">
+      <c r="C110" s="7">
         <v>19</v>
       </c>
-      <c r="D110" s="7">
+      <c r="D110" s="8">
         <v>23</v>
       </c>
-      <c r="E110" s="7">
+      <c r="E110" s="8">
         <v>42</v>
       </c>
-      <c r="F110" s="25">
+      <c r="F110" s="23">
         <v>0.42</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="11">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="18.75">
+      <c r="A111" s="10">
         <v>100925005</v>
       </c>
-      <c r="B111" s="12" t="s">
+      <c r="B111" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C111" s="15">
+      <c r="C111" s="12">
         <v>20</v>
       </c>
       <c r="D111" s="13">
@@ -3451,38 +3418,38 @@
       <c r="E111" s="13">
         <v>42</v>
       </c>
-      <c r="F111" s="26">
+      <c r="F111" s="24">
         <v>0.42</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="18.75">
       <c r="A112" s="5">
         <v>100925031</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C112" s="9">
+      <c r="C112" s="7">
         <v>18</v>
       </c>
-      <c r="D112" s="7">
+      <c r="D112" s="8">
         <v>22</v>
       </c>
-      <c r="E112" s="7">
+      <c r="E112" s="8">
         <v>40</v>
       </c>
-      <c r="F112" s="25">
+      <c r="F112" s="23">
         <v>0.4</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="11">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="18.75">
+      <c r="A113" s="10">
         <v>100925063</v>
       </c>
-      <c r="B113" s="12" t="s">
+      <c r="B113" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C113" s="15">
+      <c r="C113" s="12">
         <v>17</v>
       </c>
       <c r="D113" s="13">
@@ -3491,38 +3458,38 @@
       <c r="E113" s="13">
         <v>39</v>
       </c>
-      <c r="F113" s="26">
+      <c r="F113" s="24">
         <v>0.39</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
       <c r="A114" s="5">
         <v>100925043</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="C114" s="9">
+      <c r="C114" s="7">
         <v>15</v>
       </c>
-      <c r="D114" s="7">
+      <c r="D114" s="8">
         <v>24</v>
       </c>
-      <c r="E114" s="7">
+      <c r="E114" s="8">
         <v>39</v>
       </c>
-      <c r="F114" s="25">
+      <c r="F114" s="23">
         <v>0.39</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="11">
+    <row x14ac:dyDescent="0.25" r="115" customHeight="1" ht="18.75">
+      <c r="A115" s="10">
         <v>100925141</v>
       </c>
-      <c r="B115" s="12" t="s">
+      <c r="B115" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C115" s="15">
+      <c r="C115" s="12">
         <v>21</v>
       </c>
       <c r="D115" s="13">
@@ -3531,38 +3498,38 @@
       <c r="E115" s="13">
         <v>37</v>
       </c>
-      <c r="F115" s="26">
+      <c r="F115" s="24">
         <v>0.37</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="116" customHeight="1" ht="18.75">
       <c r="A116" s="5">
         <v>100925130</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="C116" s="9">
+      <c r="C116" s="7">
         <v>18</v>
       </c>
-      <c r="D116" s="7">
+      <c r="D116" s="8">
         <v>18</v>
       </c>
-      <c r="E116" s="7">
+      <c r="E116" s="8">
         <v>36</v>
       </c>
-      <c r="F116" s="25">
+      <c r="F116" s="23">
         <v>0.36</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="11">
+    <row x14ac:dyDescent="0.25" r="117" customHeight="1" ht="18.75">
+      <c r="A117" s="10">
         <v>100925149</v>
       </c>
-      <c r="B117" s="12" t="s">
+      <c r="B117" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C117" s="15">
+      <c r="C117" s="12">
         <v>18</v>
       </c>
       <c r="D117" s="13">
@@ -3571,38 +3538,38 @@
       <c r="E117" s="13">
         <v>32</v>
       </c>
-      <c r="F117" s="26">
+      <c r="F117" s="24">
         <v>0.32</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75">
       <c r="A118" s="5">
         <v>100925040</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="C118" s="9">
+      <c r="C118" s="7">
         <v>20</v>
       </c>
-      <c r="D118" s="7">
+      <c r="D118" s="8">
         <v>10</v>
       </c>
-      <c r="E118" s="7">
+      <c r="E118" s="8">
         <v>30</v>
       </c>
-      <c r="F118" s="25">
+      <c r="F118" s="23">
         <v>0.3</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="11">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75">
+      <c r="A119" s="10">
         <v>100925023</v>
       </c>
-      <c r="B119" s="12" t="s">
+      <c r="B119" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C119" s="15">
+      <c r="C119" s="12">
         <v>23</v>
       </c>
       <c r="D119" s="13">
@@ -3611,561 +3578,563 @@
       <c r="E119" s="13">
         <v>23</v>
       </c>
-      <c r="F119" s="26">
+      <c r="F119" s="24">
         <v>0.23</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="120" customHeight="1" ht="18.75">
       <c r="A120" s="5">
         <v>100925013</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="C120" s="9">
-        <v>0</v>
-      </c>
-      <c r="D120" s="8"/>
-      <c r="E120" s="7">
-        <v>0</v>
-      </c>
-      <c r="F120" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="11">
+      <c r="C120" s="7">
+        <v>0</v>
+      </c>
+      <c r="D120" s="25"/>
+      <c r="E120" s="8">
+        <v>0</v>
+      </c>
+      <c r="F120" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="121" customHeight="1" ht="18.75">
+      <c r="A121" s="10">
         <v>100925014</v>
       </c>
-      <c r="B121" s="12" t="s">
+      <c r="B121" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C121" s="15">
-        <v>0</v>
-      </c>
-      <c r="D121" s="14"/>
+      <c r="C121" s="12">
+        <v>0</v>
+      </c>
+      <c r="D121" s="26"/>
       <c r="E121" s="13">
         <v>0</v>
       </c>
-      <c r="F121" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F121" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="122" customHeight="1" ht="18.75">
       <c r="A122" s="5">
         <v>100925015</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="C122" s="9">
-        <v>0</v>
-      </c>
-      <c r="D122" s="8"/>
-      <c r="E122" s="7">
-        <v>0</v>
-      </c>
-      <c r="F122" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="11">
+      <c r="C122" s="7">
+        <v>0</v>
+      </c>
+      <c r="D122" s="25"/>
+      <c r="E122" s="8">
+        <v>0</v>
+      </c>
+      <c r="F122" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="123" customHeight="1" ht="18.75">
+      <c r="A123" s="10">
         <v>100925026</v>
       </c>
-      <c r="B123" s="12" t="s">
+      <c r="B123" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C123" s="15">
-        <v>0</v>
-      </c>
-      <c r="D123" s="14"/>
+      <c r="C123" s="12">
+        <v>0</v>
+      </c>
+      <c r="D123" s="26"/>
       <c r="E123" s="13">
         <v>0</v>
       </c>
-      <c r="F123" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F123" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="124" customHeight="1" ht="18.75">
       <c r="A124" s="5">
         <v>100925027</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="C124" s="9">
-        <v>0</v>
-      </c>
-      <c r="D124" s="8"/>
-      <c r="E124" s="7">
-        <v>0</v>
-      </c>
-      <c r="F124" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="11">
+      <c r="C124" s="7">
+        <v>0</v>
+      </c>
+      <c r="D124" s="25"/>
+      <c r="E124" s="8">
+        <v>0</v>
+      </c>
+      <c r="F124" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="125" customHeight="1" ht="18.75">
+      <c r="A125" s="10">
         <v>100925033</v>
       </c>
-      <c r="B125" s="12" t="s">
+      <c r="B125" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C125" s="15">
-        <v>0</v>
-      </c>
-      <c r="D125" s="14"/>
+      <c r="C125" s="12">
+        <v>0</v>
+      </c>
+      <c r="D125" s="26"/>
       <c r="E125" s="13">
         <v>0</v>
       </c>
-      <c r="F125" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F125" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="5">
         <v>100925039</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="C126" s="9">
-        <v>0</v>
-      </c>
-      <c r="D126" s="8"/>
-      <c r="E126" s="7">
-        <v>0</v>
-      </c>
-      <c r="F126" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="11">
+      <c r="C126" s="7">
+        <v>0</v>
+      </c>
+      <c r="D126" s="25"/>
+      <c r="E126" s="8">
+        <v>0</v>
+      </c>
+      <c r="F126" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
+      <c r="A127" s="10">
         <v>100925042</v>
       </c>
-      <c r="B127" s="12" t="s">
+      <c r="B127" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="C127" s="15">
-        <v>0</v>
-      </c>
-      <c r="D127" s="14"/>
+      <c r="C127" s="12">
+        <v>0</v>
+      </c>
+      <c r="D127" s="26"/>
       <c r="E127" s="13">
         <v>0</v>
       </c>
-      <c r="F127" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F127" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
       <c r="A128" s="5">
         <v>100925045</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="C128" s="9">
-        <v>0</v>
-      </c>
-      <c r="D128" s="8"/>
-      <c r="E128" s="7">
-        <v>0</v>
-      </c>
-      <c r="F128" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="11">
+      <c r="C128" s="7">
+        <v>0</v>
+      </c>
+      <c r="D128" s="25"/>
+      <c r="E128" s="8">
+        <v>0</v>
+      </c>
+      <c r="F128" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="18.75">
+      <c r="A129" s="10">
         <v>100925050</v>
       </c>
-      <c r="B129" s="12" t="s">
+      <c r="B129" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C129" s="15">
-        <v>0</v>
-      </c>
-      <c r="D129" s="14"/>
+      <c r="C129" s="12">
+        <v>0</v>
+      </c>
+      <c r="D129" s="26"/>
       <c r="E129" s="13">
         <v>0</v>
       </c>
-      <c r="F129" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F129" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="18.75">
       <c r="A130" s="5">
         <v>100925055</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C130" s="9">
-        <v>0</v>
-      </c>
-      <c r="D130" s="8"/>
-      <c r="E130" s="7">
-        <v>0</v>
-      </c>
-      <c r="F130" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="11">
+      <c r="C130" s="7">
+        <v>0</v>
+      </c>
+      <c r="D130" s="25"/>
+      <c r="E130" s="8">
+        <v>0</v>
+      </c>
+      <c r="F130" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="18.75">
+      <c r="A131" s="10">
         <v>100925057</v>
       </c>
-      <c r="B131" s="12" t="s">
+      <c r="B131" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C131" s="15">
-        <v>0</v>
-      </c>
-      <c r="D131" s="14"/>
+      <c r="C131" s="12">
+        <v>0</v>
+      </c>
+      <c r="D131" s="26"/>
       <c r="E131" s="13">
         <v>0</v>
       </c>
-      <c r="F131" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F131" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="132" customHeight="1" ht="18.75">
       <c r="A132" s="5">
         <v>100925058</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C132" s="9">
-        <v>0</v>
-      </c>
-      <c r="D132" s="8"/>
-      <c r="E132" s="7">
-        <v>0</v>
-      </c>
-      <c r="F132" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="11">
+      <c r="C132" s="7">
+        <v>0</v>
+      </c>
+      <c r="D132" s="25"/>
+      <c r="E132" s="8">
+        <v>0</v>
+      </c>
+      <c r="F132" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="18.75">
+      <c r="A133" s="10">
         <v>100925059</v>
       </c>
-      <c r="B133" s="12" t="s">
+      <c r="B133" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C133" s="15">
-        <v>0</v>
-      </c>
-      <c r="D133" s="14"/>
+      <c r="C133" s="12">
+        <v>0</v>
+      </c>
+      <c r="D133" s="26"/>
       <c r="E133" s="13">
         <v>0</v>
       </c>
-      <c r="F133" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F133" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="18.75">
       <c r="A134" s="5">
         <v>100925066</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C134" s="9">
-        <v>0</v>
-      </c>
-      <c r="D134" s="8"/>
-      <c r="E134" s="7">
-        <v>0</v>
-      </c>
-      <c r="F134" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="11">
+      <c r="C134" s="7">
+        <v>0</v>
+      </c>
+      <c r="D134" s="25"/>
+      <c r="E134" s="8">
+        <v>0</v>
+      </c>
+      <c r="F134" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="135" customHeight="1" ht="18.75">
+      <c r="A135" s="10">
         <v>100925086</v>
       </c>
-      <c r="B135" s="12" t="s">
+      <c r="B135" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C135" s="15">
-        <v>0</v>
-      </c>
-      <c r="D135" s="14"/>
+      <c r="C135" s="12">
+        <v>0</v>
+      </c>
+      <c r="D135" s="26"/>
       <c r="E135" s="13">
         <v>0</v>
       </c>
-      <c r="F135" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F135" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="136" customHeight="1" ht="18.75">
       <c r="A136" s="5">
         <v>100925088</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="C136" s="9">
-        <v>0</v>
-      </c>
-      <c r="D136" s="8"/>
-      <c r="E136" s="7">
-        <v>0</v>
-      </c>
-      <c r="F136" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="11">
+      <c r="C136" s="7">
+        <v>0</v>
+      </c>
+      <c r="D136" s="25"/>
+      <c r="E136" s="8">
+        <v>0</v>
+      </c>
+      <c r="F136" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="18.75">
+      <c r="A137" s="10">
         <v>100925089</v>
       </c>
-      <c r="B137" s="12" t="s">
+      <c r="B137" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C137" s="15">
-        <v>0</v>
-      </c>
-      <c r="D137" s="14"/>
+      <c r="C137" s="12">
+        <v>0</v>
+      </c>
+      <c r="D137" s="26"/>
       <c r="E137" s="13">
         <v>0</v>
       </c>
-      <c r="F137" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F137" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="18.75">
       <c r="A138" s="5">
         <v>100925092</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="C138" s="9">
-        <v>0</v>
-      </c>
-      <c r="D138" s="8"/>
-      <c r="E138" s="7">
-        <v>0</v>
-      </c>
-      <c r="F138" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="11">
+      <c r="C138" s="7">
+        <v>0</v>
+      </c>
+      <c r="D138" s="25"/>
+      <c r="E138" s="8">
+        <v>0</v>
+      </c>
+      <c r="F138" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="18.75">
+      <c r="A139" s="10">
         <v>100925094</v>
       </c>
-      <c r="B139" s="12" t="s">
+      <c r="B139" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C139" s="15">
-        <v>0</v>
-      </c>
-      <c r="D139" s="14"/>
+      <c r="C139" s="12">
+        <v>0</v>
+      </c>
+      <c r="D139" s="26"/>
       <c r="E139" s="13">
         <v>0</v>
       </c>
-      <c r="F139" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F139" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="140" customHeight="1" ht="18.75">
       <c r="A140" s="27">
         <v>100925096</v>
       </c>
       <c r="B140" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="C140" s="9">
-        <v>0</v>
-      </c>
-      <c r="D140" s="8"/>
-      <c r="E140" s="9">
-        <v>0</v>
-      </c>
-      <c r="F140" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="11">
+      <c r="C140" s="7">
+        <v>0</v>
+      </c>
+      <c r="D140" s="25"/>
+      <c r="E140" s="7">
+        <v>0</v>
+      </c>
+      <c r="F140" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="18.75">
+      <c r="A141" s="10">
         <v>100925108</v>
       </c>
-      <c r="B141" s="12" t="s">
+      <c r="B141" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="C141" s="15">
-        <v>0</v>
-      </c>
-      <c r="D141" s="14"/>
-      <c r="E141" s="13">
-        <v>0</v>
-      </c>
-      <c r="F141" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C141" s="7">
+        <v>29</v>
+      </c>
+      <c r="D141" s="8">
+        <v>48</v>
+      </c>
+      <c r="E141" s="8">
+        <v>77</v>
+      </c>
+      <c r="F141" s="16">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="18.75">
       <c r="A142" s="5">
         <v>100925112</v>
       </c>
       <c r="B142" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="C142" s="9">
-        <v>0</v>
-      </c>
-      <c r="D142" s="8"/>
-      <c r="E142" s="7">
-        <v>0</v>
-      </c>
-      <c r="F142" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="11">
+      <c r="C142" s="7">
+        <v>0</v>
+      </c>
+      <c r="D142" s="25"/>
+      <c r="E142" s="8">
+        <v>0</v>
+      </c>
+      <c r="F142" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="143" customHeight="1" ht="18.75">
+      <c r="A143" s="10">
         <v>100925124</v>
       </c>
-      <c r="B143" s="12" t="s">
+      <c r="B143" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="C143" s="15">
-        <v>0</v>
-      </c>
-      <c r="D143" s="14"/>
+      <c r="C143" s="12">
+        <v>0</v>
+      </c>
+      <c r="D143" s="26"/>
       <c r="E143" s="13">
         <v>0</v>
       </c>
-      <c r="F143" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F143" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="144" customHeight="1" ht="18.75">
       <c r="A144" s="5">
         <v>100925126</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="C144" s="9">
-        <v>0</v>
-      </c>
-      <c r="D144" s="8"/>
-      <c r="E144" s="7">
-        <v>0</v>
-      </c>
-      <c r="F144" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="11">
+      <c r="C144" s="7">
+        <v>0</v>
+      </c>
+      <c r="D144" s="25"/>
+      <c r="E144" s="8">
+        <v>0</v>
+      </c>
+      <c r="F144" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="145" customHeight="1" ht="18.75">
+      <c r="A145" s="10">
         <v>100925127</v>
       </c>
-      <c r="B145" s="12" t="s">
+      <c r="B145" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="C145" s="15">
-        <v>0</v>
-      </c>
-      <c r="D145" s="14"/>
+      <c r="C145" s="12">
+        <v>0</v>
+      </c>
+      <c r="D145" s="26"/>
       <c r="E145" s="13">
         <v>0</v>
       </c>
-      <c r="F145" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F145" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="146" customHeight="1" ht="18.75">
       <c r="A146" s="5">
         <v>100925136</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="C146" s="9">
-        <v>0</v>
-      </c>
-      <c r="D146" s="8"/>
-      <c r="E146" s="7">
-        <v>0</v>
-      </c>
-      <c r="F146" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="11">
+      <c r="C146" s="7">
+        <v>0</v>
+      </c>
+      <c r="D146" s="25"/>
+      <c r="E146" s="8">
+        <v>0</v>
+      </c>
+      <c r="F146" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="147" customHeight="1" ht="18.75">
+      <c r="A147" s="10">
         <v>100925140</v>
       </c>
-      <c r="B147" s="12" t="s">
+      <c r="B147" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="C147" s="15">
-        <v>0</v>
-      </c>
-      <c r="D147" s="14"/>
+      <c r="C147" s="12">
+        <v>0</v>
+      </c>
+      <c r="D147" s="26"/>
       <c r="E147" s="13">
         <v>0</v>
       </c>
-      <c r="F147" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F147" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="148" customHeight="1" ht="18.75">
       <c r="A148" s="5">
         <v>100925145</v>
       </c>
       <c r="B148" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C148" s="9">
-        <v>0</v>
-      </c>
-      <c r="D148" s="8"/>
-      <c r="E148" s="7">
-        <v>0</v>
-      </c>
-      <c r="F148" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="11">
+      <c r="C148" s="7">
+        <v>0</v>
+      </c>
+      <c r="D148" s="25"/>
+      <c r="E148" s="8">
+        <v>0</v>
+      </c>
+      <c r="F148" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="149" customHeight="1" ht="18.75">
+      <c r="A149" s="10">
         <v>100925148</v>
       </c>
-      <c r="B149" s="12" t="s">
+      <c r="B149" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="C149" s="15">
-        <v>0</v>
-      </c>
-      <c r="D149" s="14"/>
+      <c r="C149" s="12">
+        <v>0</v>
+      </c>
+      <c r="D149" s="26"/>
       <c r="E149" s="13">
         <v>0</v>
       </c>
-      <c r="F149" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F149" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="150" customHeight="1" ht="18.75">
       <c r="A150" s="29">
         <v>100925152</v>
       </c>
       <c r="B150" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="C150" s="32">
-        <v>0</v>
-      </c>
-      <c r="D150" s="31"/>
+      <c r="C150" s="31">
+        <v>0</v>
+      </c>
+      <c r="D150" s="32"/>
       <c r="E150" s="33">
         <v>0</v>
       </c>
